--- a/medicine/Sexualité et sexologie/Kama_Sutra,_une_histoire_d'amour/Kama_Sutra,_une_histoire_d'amour.xlsx
+++ b/medicine/Sexualité et sexologie/Kama_Sutra,_une_histoire_d'amour/Kama_Sutra,_une_histoire_d'amour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kama_Sutra,_une_histoire_d%27amour</t>
+          <t>Kama_Sutra,_une_histoire_d'amour</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kama Sutra, une histoire d’amour (Kama Sutra: A Tale of Love) est un film indien réalisé par Mira Nair, sorti en 1996[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kama Sutra, une histoire d’amour (Kama Sutra: A Tale of Love) est un film indien réalisé par Mira Nair, sorti en 1996.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kama_Sutra,_une_histoire_d%27amour</t>
+          <t>Kama_Sutra,_une_histoire_d'amour</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'Inde du XVIe siècle, Tara est une princesse tandis que Maya est sa belle servante. Ce sont les meilleurs amies du monde, mais il existe un courant sous-jacent de jalousie et de ressentiment, symbolisé par le fait que Maya reçoit les vêtements de seconde main de Tara et jamais rien de nouveau à porter. Les filles se disputent car Tara est mécontente du fait que Maya soit une meilleure danseuse classique qu'elle et que ses parents et son frère bossu, le prince Bikram (surnommé Biki), montrent de l'affection pour son serviteur. Tara est prête à épouser le prince Raj Singh, mais lorsque le prince vient voir sa future épouse, il est instantanément amoureux de Maya. 
 Remarquant cela, Tara crache au visage de Maya et la renvoie du mariage en larmes. Maya se venge en recherchant Raj et en ayant des relations intimes avec lui, avant qu'il n'ait terminé les rites de mariage avec Tara ; Biki, caché, les regarde tous les deux. Alors que Tara quitte la maison en tant que mariée, Maya lui dit que, tout comme Maya a porté les vêtements usagés de la princesse toute sa vie, Tara aura désormais quelque chose que Maya a utilisé. Lors de sa nuit de noces, Tara hésite à consommer leur relation. Un Raj en colère viole son épouse horrifiée, l'appelant même Maya, donnant un ton de violence et d'humiliation au mariage. Malgré cela, Tara aspire toujours à une relation amoureuse avec son mari indifférent. Pour sauver l'honneur de Maya, Biki lui envoie une demande en mariage. Lorsqu'elle refuse, il la qualifie publiquement de pute et elle est obligée de quitter son domicile. Errant seule, elle rencontre un sculpteur sur pierre, Jai Kumar, qui travaille pour Raj. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kama_Sutra,_une_histoire_d%27amour</t>
+          <t>Kama_Sutra,_une_histoire_d'amour</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre : Kama Sutra, une histoire d'amour
@@ -583,7 +599,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kama_Sutra,_une_histoire_d%27amour</t>
+          <t>Kama_Sutra,_une_histoire_d'amour</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,7 +617,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Indira Varma : Maya
 Sarita Choudhury : la râni Tara
@@ -627,7 +645,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kama_Sutra,_une_histoire_d%27amour</t>
+          <t>Kama_Sutra,_une_histoire_d'amour</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -645,7 +663,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
